--- a/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB87CA3-BB17-4637-8F6F-53654A96DACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E5AB70-847E-49F8-AF54-ADC3A332ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43E908A3-EF72-4D76-836C-86918A7F306E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDD2C38E-D6BE-4CCB-9984-FF9A96D46ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>91,41%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>9,03%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>90,97%</t>
   </si>
   <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,49 @@
     <t>14,23%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
+    <t>17,07%</t>
   </si>
   <si>
     <t>85,77%</t>
   </si>
   <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>82,93%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,55 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,31 +362,31 @@
     <t>23,21%</t>
   </si>
   <si>
-    <t>28,56%</t>
+    <t>28,85%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>71,44%</t>
+    <t>71,15%</t>
   </si>
   <si>
     <t>76,79%</t>
@@ -401,73 +395,67 @@
     <t>58,98%</t>
   </si>
   <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
+    <t>22,15%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>77,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B800154C-3F5F-4A20-BADB-85B483B62731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14509C2-B587-4025-A18C-AE86BAE42940}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1507,7 +1495,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1510,13 @@
         <v>620939</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -1537,28 +1525,28 @@
         <v>558832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1419</v>
       </c>
       <c r="N14" s="7">
-        <v>1179772</v>
+        <v>1179771</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1588,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1614,13 @@
         <v>124528</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -1641,13 +1629,13 @@
         <v>198457</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -1656,13 +1644,13 @@
         <v>322985</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1665,13 @@
         <v>475629</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
@@ -1692,13 +1680,13 @@
         <v>398606</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1205</v>
@@ -1707,13 +1695,13 @@
         <v>874235</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1769,13 @@
         <v>180665</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -1796,13 +1784,13 @@
         <v>421172</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1057</v>
@@ -1811,13 +1799,13 @@
         <v>601837</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,16 +1817,16 @@
         <v>754</v>
       </c>
       <c r="D20" s="7">
-        <v>517089</v>
+        <v>517090</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>925</v>
@@ -1847,13 +1835,13 @@
         <v>605465</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1679</v>
@@ -1862,13 +1850,13 @@
         <v>1122555</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,7 +1868,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1936,13 +1924,13 @@
         <v>487829</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1644</v>
@@ -1951,28 +1939,28 @@
         <v>1040160</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2219</v>
       </c>
       <c r="N22" s="7">
-        <v>1527989</v>
+        <v>1527988</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>2897399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>3723</v>
@@ -2002,13 +1990,13 @@
         <v>2795421</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>6524</v>
@@ -2017,13 +2005,13 @@
         <v>5692820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2053,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E5AB70-847E-49F8-AF54-ADC3A332ED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BE9F03-029F-47BA-AB65-A7C3BBE9E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDD2C38E-D6BE-4CCB-9984-FF9A96D46ADC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D219453-3ED0-4E1C-87B1-79ECB1BE04CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -870,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14509C2-B587-4025-A18C-AE86BAE42940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE469A1-8D10-478D-86E9-2D72543AC9B7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BE9F03-029F-47BA-AB65-A7C3BBE9E8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9497AC8A-C97A-412E-BB99-64819D2DF5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D219453-3ED0-4E1C-87B1-79ECB1BE04CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C9C04C-E41F-400F-99B8-A8AE6612530C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,226 +74,232 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>11,0%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>77,93%</t>
   </si>
   <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>82,7%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,55 +308,55 @@
     <t>20,75%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,31 +368,31 @@
     <t>23,21%</t>
   </si>
   <si>
-    <t>28,85%</t>
+    <t>28,56%</t>
   </si>
   <si>
     <t>41,02%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>71,15%</t>
+    <t>71,44%</t>
   </si>
   <si>
     <t>76,79%</t>
@@ -395,67 +401,73 @@
     <t>58,98%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>14,41%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>22,15%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
   </si>
   <si>
     <t>85,59%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>77,85%</t>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE469A1-8D10-478D-86E9-2D72543AC9B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511C764-2E07-492A-AB62-DEA9D0ACD40C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1495,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1522,13 @@
         <v>620939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
@@ -1525,28 +1537,28 @@
         <v>558832</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1419</v>
       </c>
       <c r="N14" s="7">
-        <v>1179771</v>
+        <v>1179772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1588,7 +1600,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1602,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1626,13 @@
         <v>124528</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
@@ -1629,13 +1641,13 @@
         <v>198457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
@@ -1644,13 +1656,13 @@
         <v>322985</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1677,13 @@
         <v>475629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
@@ -1680,13 +1692,13 @@
         <v>398606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1205</v>
@@ -1695,13 +1707,13 @@
         <v>874235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1781,13 @@
         <v>180665</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -1784,13 +1796,13 @@
         <v>421172</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1057</v>
@@ -1799,13 +1811,13 @@
         <v>601837</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1829,16 @@
         <v>754</v>
       </c>
       <c r="D20" s="7">
-        <v>517090</v>
+        <v>517089</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>925</v>
@@ -1835,13 +1847,13 @@
         <v>605465</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1679</v>
@@ -1850,13 +1862,13 @@
         <v>1122555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1936,13 @@
         <v>487829</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1644</v>
@@ -1939,28 +1951,28 @@
         <v>1040160</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>2219</v>
       </c>
       <c r="N22" s="7">
-        <v>1527988</v>
+        <v>1527989</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1987,13 @@
         <v>2897399</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3723</v>
@@ -1990,13 +2002,13 @@
         <v>2795421</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6524</v>
@@ -2005,13 +2017,13 @@
         <v>5692820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2053,7 +2065,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9497AC8A-C97A-412E-BB99-64819D2DF5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1963FE49-9F4F-433B-A066-F62186E0A82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C9C04C-E41F-400F-99B8-A8AE6612530C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67A3ADB2-C682-4C01-95B7-6D32D94FC7C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,409 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>1,78%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
   </si>
   <si>
     <t>20,75%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>79,25%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511C764-2E07-492A-AB62-DEA9D0ACD40C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA95951-7093-4A67-8DCC-4D65D1E26201}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>6719</v>
+        <v>7206</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1069,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="7">
-        <v>56210</v>
+        <v>50324</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1084,7 @@
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>62929</v>
+        <v>57531</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1105,7 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>370960</v>
+        <v>392781</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1120,7 @@
         <v>177</v>
       </c>
       <c r="I5" s="7">
-        <v>298747</v>
+        <v>262876</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1135,7 @@
         <v>346</v>
       </c>
       <c r="N5" s="7">
-        <v>669707</v>
+        <v>655656</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1156,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1171,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1186,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1209,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>22551</v>
+        <v>22820</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1224,7 @@
         <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>72135</v>
+        <v>66502</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1239,7 @@
         <v>81</v>
       </c>
       <c r="N7" s="7">
-        <v>94686</v>
+        <v>89322</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1260,7 @@
         <v>284</v>
       </c>
       <c r="D8" s="7">
-        <v>405845</v>
+        <v>400727</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1275,7 @@
         <v>398</v>
       </c>
       <c r="I8" s="7">
-        <v>427080</v>
+        <v>445591</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1290,7 @@
         <v>682</v>
       </c>
       <c r="N8" s="7">
-        <v>832925</v>
+        <v>846318</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1311,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1326,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1341,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>50316</v>
+        <v>48943</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1379,7 @@
         <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>103757</v>
+        <v>97317</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1394,7 @@
         <v>201</v>
       </c>
       <c r="N10" s="7">
-        <v>154072</v>
+        <v>146260</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1415,7 @@
         <v>499</v>
       </c>
       <c r="D11" s="7">
-        <v>506936</v>
+        <v>487395</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1430,7 @@
         <v>694</v>
       </c>
       <c r="I11" s="7">
-        <v>506690</v>
+        <v>494685</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1445,7 @@
         <v>1193</v>
       </c>
       <c r="N11" s="7">
-        <v>1013627</v>
+        <v>982080</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1466,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1481,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1496,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1519,7 @@
         <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>103051</v>
+        <v>97825</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1477,37 +1528,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>289</v>
       </c>
       <c r="I13" s="7">
-        <v>188429</v>
+        <v>173392</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>387</v>
       </c>
       <c r="N13" s="7">
-        <v>291480</v>
+        <v>271217</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1570,46 @@
         <v>567</v>
       </c>
       <c r="D14" s="7">
-        <v>620939</v>
+        <v>789961</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>852</v>
       </c>
       <c r="I14" s="7">
-        <v>558832</v>
+        <v>539489</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1419</v>
       </c>
       <c r="N14" s="7">
-        <v>1179772</v>
+        <v>1329450</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1621,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1636,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1651,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1665,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1674,46 @@
         <v>135</v>
       </c>
       <c r="D16" s="7">
-        <v>124528</v>
+        <v>117108</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>325</v>
       </c>
       <c r="I16" s="7">
-        <v>198457</v>
+        <v>182259</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>460</v>
       </c>
       <c r="N16" s="7">
-        <v>322985</v>
+        <v>299367</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1725,46 @@
         <v>528</v>
       </c>
       <c r="D17" s="7">
-        <v>475629</v>
+        <v>444126</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>677</v>
       </c>
       <c r="I17" s="7">
-        <v>398606</v>
+        <v>365646</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1205</v>
       </c>
       <c r="N17" s="7">
-        <v>874235</v>
+        <v>809772</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1776,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1791,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1806,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1820,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>274</v>
+        <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>180665</v>
+        <v>75576</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>287</v>
+      </c>
+      <c r="I19" s="7">
+        <v>143235</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>783</v>
-      </c>
-      <c r="I19" s="7">
-        <v>421172</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>406</v>
+      </c>
+      <c r="N19" s="7">
+        <v>218811</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>1057</v>
-      </c>
-      <c r="N19" s="7">
-        <v>601837</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1877,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>754</v>
+        <v>451</v>
       </c>
       <c r="D20" s="7">
-        <v>517089</v>
+        <v>292589</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>540</v>
+      </c>
+      <c r="I20" s="7">
+        <v>465133</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>925</v>
-      </c>
-      <c r="I20" s="7">
-        <v>605465</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>991</v>
+      </c>
+      <c r="N20" s="7">
+        <v>757722</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>1679</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1122555</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1975,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>575</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>487829</v>
+        <v>93101</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>496</v>
+      </c>
+      <c r="I22" s="7">
+        <v>236516</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>1644</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1040160</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>651</v>
+      </c>
+      <c r="N22" s="7">
+        <v>329617</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>2219</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1527989</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2801</v>
+        <v>303</v>
       </c>
       <c r="D23" s="7">
-        <v>2897399</v>
+        <v>189658</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>385</v>
+      </c>
+      <c r="I23" s="7">
+        <v>189315</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>3723</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2795421</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>688</v>
+      </c>
+      <c r="N23" s="7">
+        <v>378973</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>6524</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5692820</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>575</v>
+      </c>
+      <c r="D25" s="7">
+        <v>462580</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1644</v>
+      </c>
+      <c r="I25" s="7">
+        <v>949546</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2219</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1412125</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2801</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2997237</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3723</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2762734</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6524</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5759972</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
